--- a/Raw_Data/Census_Pop Change.xlsx
+++ b/Raw_Data/Census_Pop Change.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arupm\Desktop\bootcamp\Homeworks\Project-1\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2752E854-549F-8E44-B476-B32371E86192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2210B62-F735-4CB5-BA01-A1745516FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="-18900" windowWidth="33540" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBSA-MET-EST2021-COMP" sheetId="1" r:id="rId1"/>
     <sheet name="Data Source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CBSA-MET-EST2021-COMP'!$A$5:$O$430</definedName>
     <definedName name="comp_met_cbsa">'CBSA-MET-EST2021-COMP'!$A$5:$O$422</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CBSA-MET-EST2021-COMP'!$A$2:$O$430</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'CBSA-MET-EST2021-COMP'!$A:$A,'CBSA-MET-EST2021-COMP'!$2:$6</definedName>
@@ -6735,6 +6736,31 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -6782,31 +6808,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7148,117 +7149,117 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O430"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.6640625" style="1" customWidth="1"/>
-    <col min="2" max="15" width="13.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="63.7109375" style="1" customWidth="1"/>
+    <col min="2" max="15" width="13.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="23" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
@@ -7274,8 +7275,8 @@
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
@@ -7292,7 +7293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>-232590</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>-463</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>-1101</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>4318</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
@@ -7809,7 +7810,7 @@
         <v>-176</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
@@ -7950,7 +7951,7 @@
         <v>-2427</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
@@ -7997,7 +7998,7 @@
         <v>-3798</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>31</v>
       </c>
@@ -8091,7 +8092,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>33</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>25246</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>4978</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>52636</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>40</v>
       </c>
@@ -8514,7 +8515,7 @@
         <v>-8488</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>41</v>
       </c>
@@ -8561,7 +8562,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
@@ -8608,7 +8609,7 @@
         <v>5717</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>43</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>-847</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>44</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>-96</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>45</v>
       </c>
@@ -8749,7 +8750,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>46</v>
       </c>
@@ -8796,7 +8797,7 @@
         <v>-2348</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>47</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>-246</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>48</v>
       </c>
@@ -8890,7 +8891,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>49</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>6713</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>50</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>51</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>-1160</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>52</v>
       </c>
@@ -9078,7 +9079,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>53</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>54</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>-634</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>55</v>
       </c>
@@ -9219,7 +9220,7 @@
         <v>-579</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>56</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>57</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>58</v>
       </c>
@@ -9360,7 +9361,7 @@
         <v>28577</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>59</v>
       </c>
@@ -9407,7 +9408,7 @@
         <v>-54777</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>401</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>-32338</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>402</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>-27568</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>403</v>
       </c>
@@ -9548,7 +9549,7 @@
         <v>5129</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>60</v>
       </c>
@@ -9595,7 +9596,7 @@
         <v>-1615</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>61</v>
       </c>
@@ -9642,7 +9643,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>62</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>-1328</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>63</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>-435</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>64</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>-1076</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>65</v>
       </c>
@@ -9830,7 +9831,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>66</v>
       </c>
@@ -9877,7 +9878,7 @@
         <v>-1648</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>67</v>
       </c>
@@ -9924,7 +9925,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>69</v>
       </c>
@@ -10018,7 +10019,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>70</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>71</v>
       </c>
@@ -10112,7 +10113,7 @@
         <v>30368</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>72</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>73</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>-264</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>74</v>
       </c>
@@ -10253,7 +10254,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>75</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>-420</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
@@ -10347,7 +10348,7 @@
         <v>-1566</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>77</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>78</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>-992</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>79</v>
       </c>
@@ -10488,7 +10489,7 @@
         <v>-1709</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>80</v>
       </c>
@@ -10535,7 +10536,7 @@
         <v>10949</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>81</v>
       </c>
@@ -10582,7 +10583,7 @@
         <v>31531</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>82</v>
       </c>
@@ -10629,7 +10630,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
@@ -10676,7 +10677,7 @@
         <v>6203</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>85</v>
       </c>
@@ -10770,7 +10771,7 @@
         <v>-127799</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>404</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>-123864</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>405</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>-1285</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>406</v>
       </c>
@@ -10911,7 +10912,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>407</v>
       </c>
@@ -10958,7 +10959,7 @@
         <v>-5081</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>86</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>-2904</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>87</v>
       </c>
@@ -11052,7 +11053,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>88</v>
       </c>
@@ -11099,7 +11100,7 @@
         <v>5147</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>89</v>
       </c>
@@ -11146,7 +11147,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>90</v>
       </c>
@@ -11193,7 +11194,7 @@
         <v>-7708</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>91</v>
       </c>
@@ -11240,7 +11241,7 @@
         <v>8571</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>92</v>
       </c>
@@ -11287,7 +11288,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>93</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>94</v>
       </c>
@@ -11381,7 +11382,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>95</v>
       </c>
@@ -11428,7 +11429,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>96</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>-2119</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>97</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>98</v>
       </c>
@@ -11569,7 +11570,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>99</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>-198</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>100</v>
       </c>
@@ -11663,7 +11664,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>101</v>
       </c>
@@ -11710,7 +11711,7 @@
         <v>6113</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>102</v>
       </c>
@@ -11757,7 +11758,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>103</v>
       </c>
@@ -11804,7 +11805,7 @@
         <v>69140</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>408</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>48609</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>409</v>
       </c>
@@ -11898,7 +11899,7 @@
         <v>20531</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>104</v>
       </c>
@@ -11945,7 +11946,7 @@
         <v>-213</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>105</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>-769</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>106</v>
       </c>
@@ -12039,7 +12040,7 @@
         <v>8296</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>107</v>
       </c>
@@ -12086,7 +12087,7 @@
         <v>-2527</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>108</v>
       </c>
@@ -12133,7 +12134,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>109</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>110</v>
       </c>
@@ -12227,7 +12228,7 @@
         <v>-1258</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>111</v>
       </c>
@@ -12274,7 +12275,7 @@
         <v>22391</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>112</v>
       </c>
@@ -12321,7 +12322,7 @@
         <v>-3564</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>6173</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>-24560</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>410</v>
       </c>
@@ -12462,7 +12463,7 @@
         <v>-19247</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>411</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>-5313</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>115</v>
       </c>
@@ -12556,7 +12557,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>116</v>
       </c>
@@ -12603,7 +12604,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>117</v>
       </c>
@@ -12650,7 +12651,7 @@
         <v>-652</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>118</v>
       </c>
@@ -12697,7 +12698,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>119</v>
       </c>
@@ -12744,7 +12745,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>120</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>121</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>122</v>
       </c>
@@ -12885,7 +12886,7 @@
         <v>-674</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>123</v>
       </c>
@@ -12932,7 +12933,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>124</v>
       </c>
@@ -12979,7 +12980,7 @@
         <v>-1363</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>125</v>
       </c>
@@ -13026,7 +13027,7 @@
         <v>-665</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>126</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>-2961</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>127</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>-950</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>128</v>
       </c>
@@ -13167,7 +13168,7 @@
         <v>-1053</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>129</v>
       </c>
@@ -13214,7 +13215,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>130</v>
       </c>
@@ -13261,7 +13262,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>131</v>
       </c>
@@ -13308,7 +13309,7 @@
         <v>-947</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>132</v>
       </c>
@@ -13355,7 +13356,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>133</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>-593</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>134</v>
       </c>
@@ -13449,7 +13450,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>135</v>
       </c>
@@ -13496,7 +13497,7 @@
         <v>10974</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>136</v>
       </c>
@@ -13543,7 +13544,7 @@
         <v>-357</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>137</v>
       </c>
@@ -13590,7 +13591,7 @@
         <v>-528</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>138</v>
       </c>
@@ -13637,7 +13638,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>139</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>140</v>
       </c>
@@ -13731,7 +13732,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>141</v>
       </c>
@@ -13778,7 +13779,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>142</v>
       </c>
@@ -13825,7 +13826,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>143</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>144</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>-1473</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>145</v>
       </c>
@@ -13966,7 +13967,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>146</v>
       </c>
@@ -14013,7 +14014,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>147</v>
       </c>
@@ -14060,7 +14061,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>148</v>
       </c>
@@ -14107,7 +14108,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>149</v>
       </c>
@@ -14154,7 +14155,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>150</v>
       </c>
@@ -14201,7 +14202,7 @@
         <v>-415</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>151</v>
       </c>
@@ -14248,7 +14249,7 @@
         <v>-1232</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>152</v>
       </c>
@@ -14295,7 +14296,7 @@
         <v>-1155</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>153</v>
       </c>
@@ -14342,7 +14343,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>154</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>155</v>
       </c>
@@ -14436,7 +14437,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>156</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>157</v>
       </c>
@@ -14530,7 +14531,7 @@
         <v>8406</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>158</v>
       </c>
@@ -14577,7 +14578,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>159</v>
       </c>
@@ -14624,7 +14625,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>160</v>
       </c>
@@ -14671,7 +14672,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>161</v>
       </c>
@@ -14718,7 +14719,7 @@
         <v>12420</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>162</v>
       </c>
@@ -14765,7 +14766,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>163</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>4828</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>164</v>
       </c>
@@ -14859,7 +14860,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>165</v>
       </c>
@@ -14906,7 +14907,7 @@
         <v>-392</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>166</v>
       </c>
@@ -14953,7 +14954,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>167</v>
       </c>
@@ -15000,7 +15001,7 @@
         <v>-187</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>168</v>
       </c>
@@ -15047,7 +15048,7 @@
         <v>-778</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>169</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>170</v>
       </c>
@@ -15141,7 +15142,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>171</v>
       </c>
@@ -15188,7 +15189,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>172</v>
       </c>
@@ -15235,7 +15236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>173</v>
       </c>
@@ -15282,7 +15283,7 @@
         <v>7176</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>174</v>
       </c>
@@ -15329,7 +15330,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>175</v>
       </c>
@@ -15376,7 +15377,7 @@
         <v>-994</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>176</v>
       </c>
@@ -15423,7 +15424,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>177</v>
       </c>
@@ -15470,7 +15471,7 @@
         <v>-1027</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>178</v>
       </c>
@@ -15517,7 +15518,7 @@
         <v>11035</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>179</v>
       </c>
@@ -15564,7 +15565,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>180</v>
       </c>
@@ -15611,7 +15612,7 @@
         <v>8214</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>181</v>
       </c>
@@ -15658,7 +15659,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>182</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>-593</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>183</v>
       </c>
@@ -15752,7 +15753,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>184</v>
       </c>
@@ -15799,7 +15800,7 @@
         <v>-4922</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>185</v>
       </c>
@@ -15846,7 +15847,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>186</v>
       </c>
@@ -15893,7 +15894,7 @@
         <v>30062</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>187</v>
       </c>
@@ -15940,7 +15941,7 @@
         <v>-1017</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>188</v>
       </c>
@@ -15987,7 +15988,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>189</v>
       </c>
@@ -16034,7 +16035,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>190</v>
       </c>
@@ -16081,7 +16082,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>191</v>
       </c>
@@ -16128,7 +16129,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>192</v>
       </c>
@@ -16175,7 +16176,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>193</v>
       </c>
@@ -16222,7 +16223,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>194</v>
       </c>
@@ -16269,7 +16270,7 @@
         <v>-840</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>195</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>-1069</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>196</v>
       </c>
@@ -16363,7 +16364,7 @@
         <v>-743</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>197</v>
       </c>
@@ -16410,7 +16411,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>198</v>
       </c>
@@ -16457,7 +16458,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>199</v>
       </c>
@@ -16504,7 +16505,7 @@
         <v>6691</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>200</v>
       </c>
@@ -16551,7 +16552,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>201</v>
       </c>
@@ -16598,7 +16599,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>202</v>
       </c>
@@ -16645,7 +16646,7 @@
         <v>16721</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>203</v>
       </c>
@@ -16692,7 +16693,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>204</v>
       </c>
@@ -16739,7 +16740,7 @@
         <v>-309</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>205</v>
       </c>
@@ -16786,7 +16787,7 @@
         <v>-214</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>206</v>
       </c>
@@ -16833,7 +16834,7 @@
         <v>-365</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>207</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>-12358</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>208</v>
       </c>
@@ -16927,7 +16928,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>209</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>29482</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>210</v>
       </c>
@@ -17021,7 +17022,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>211</v>
       </c>
@@ -17068,7 +17069,7 @@
         <v>-1196</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>212</v>
       </c>
@@ -17115,7 +17116,7 @@
         <v>-2804</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>213</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>214</v>
       </c>
@@ -17209,7 +17210,7 @@
         <v>20445</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>215</v>
       </c>
@@ -17256,7 +17257,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>216</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>217</v>
       </c>
@@ -17350,7 +17351,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>218</v>
       </c>
@@ -17397,7 +17398,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>219</v>
       </c>
@@ -17444,7 +17445,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>220</v>
       </c>
@@ -17491,7 +17492,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>221</v>
       </c>
@@ -17538,7 +17539,7 @@
         <v>-349</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>222</v>
       </c>
@@ -17585,7 +17586,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>223</v>
       </c>
@@ -17632,7 +17633,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>224</v>
       </c>
@@ -17679,7 +17680,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>225</v>
       </c>
@@ -17726,7 +17727,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>226</v>
       </c>
@@ -17773,7 +17774,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>227</v>
       </c>
@@ -17820,7 +17821,7 @@
         <v>-237526</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>412</v>
       </c>
@@ -17867,7 +17868,7 @@
         <v>-29609</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
         <v>413</v>
       </c>
@@ -17914,7 +17915,7 @@
         <v>-207917</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>228</v>
       </c>
@@ -17961,7 +17962,7 @@
         <v>-259</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>229</v>
       </c>
@@ -18008,7 +18009,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>230</v>
       </c>
@@ -18055,7 +18056,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>231</v>
       </c>
@@ -18102,7 +18103,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>232</v>
       </c>
@@ -18149,7 +18150,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>233</v>
       </c>
@@ -18196,7 +18197,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>234</v>
       </c>
@@ -18243,7 +18244,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>235</v>
       </c>
@@ -18290,7 +18291,7 @@
         <v>-1484</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>236</v>
       </c>
@@ -18337,7 +18338,7 @@
         <v>-319</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>237</v>
       </c>
@@ -18384,7 +18385,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
         <v>238</v>
       </c>
@@ -18431,7 +18432,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>239</v>
       </c>
@@ -18478,7 +18479,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
         <v>240</v>
       </c>
@@ -18525,7 +18526,7 @@
         <v>-3643</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>241</v>
       </c>
@@ -18572,7 +18573,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>242</v>
       </c>
@@ -18619,7 +18620,7 @@
         <v>-66989</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>414</v>
       </c>
@@ -18666,7 +18667,7 @@
         <v>-20258</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
         <v>415</v>
       </c>
@@ -18713,7 +18714,7 @@
         <v>-54798</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
         <v>416</v>
       </c>
@@ -18760,7 +18761,7 @@
         <v>8067</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>243</v>
       </c>
@@ -18807,7 +18808,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>244</v>
       </c>
@@ -18854,7 +18855,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>245</v>
       </c>
@@ -18901,7 +18902,7 @@
         <v>-4070</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>246</v>
       </c>
@@ -18948,7 +18949,7 @@
         <v>-10159</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>247</v>
       </c>
@@ -18995,7 +18996,7 @@
         <v>-16698</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>248</v>
       </c>
@@ -19042,7 +19043,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>249</v>
       </c>
@@ -19089,7 +19090,7 @@
         <v>-1484</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>250</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>-2462</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>251</v>
       </c>
@@ -19183,7 +19184,7 @@
         <v>-1906</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>252</v>
       </c>
@@ -19230,7 +19231,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>253</v>
       </c>
@@ -19277,7 +19278,7 @@
         <v>-789</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>254</v>
       </c>
@@ -19324,7 +19325,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>255</v>
       </c>
@@ -19371,7 +19372,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>256</v>
       </c>
@@ -19418,7 +19419,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>257</v>
       </c>
@@ -19465,7 +19466,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>258</v>
       </c>
@@ -19512,7 +19513,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>259</v>
       </c>
@@ -19559,7 +19560,7 @@
         <v>26295</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>260</v>
       </c>
@@ -19606,7 +19607,7 @@
         <v>-1582</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>261</v>
       </c>
@@ -19653,7 +19654,7 @@
         <v>11597</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>262</v>
       </c>
@@ -19700,7 +19701,7 @@
         <v>17084</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>263</v>
       </c>
@@ -19747,7 +19748,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>264</v>
       </c>
@@ -19794,7 +19795,7 @@
         <v>-365</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>265</v>
       </c>
@@ -19841,7 +19842,7 @@
         <v>-11332</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>266</v>
       </c>
@@ -19888,7 +19889,7 @@
         <v>-443179</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
         <v>417</v>
       </c>
@@ -19935,7 +19936,7 @@
         <v>-5402</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
         <v>418</v>
       </c>
@@ -19982,7 +19983,7 @@
         <v>-12019</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
         <v>419</v>
       </c>
@@ -20029,7 +20030,7 @@
         <v>8940</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
         <v>420</v>
       </c>
@@ -20076,7 +20077,7 @@
         <v>-434698</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>267</v>
       </c>
@@ -20123,7 +20124,7 @@
         <v>-690</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>268</v>
       </c>
@@ -20170,7 +20171,7 @@
         <v>34327</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>269</v>
       </c>
@@ -20217,7 +20218,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>270</v>
       </c>
@@ -20264,7 +20265,7 @@
         <v>13719</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
         <v>271</v>
       </c>
@@ -20311,7 +20312,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>272</v>
       </c>
@@ -20358,7 +20359,7 @@
         <v>-6117</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
         <v>273</v>
       </c>
@@ -20405,7 +20406,7 @@
         <v>6235</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>274</v>
       </c>
@@ -20452,7 +20453,7 @@
         <v>12683</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
         <v>275</v>
       </c>
@@ -20499,7 +20500,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>276</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>-758</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>277</v>
       </c>
@@ -20593,7 +20594,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>278</v>
       </c>
@@ -20640,7 +20641,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>279</v>
       </c>
@@ -20687,7 +20688,7 @@
         <v>-198</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>280</v>
       </c>
@@ -20734,7 +20735,7 @@
         <v>-5474</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>281</v>
       </c>
@@ -20781,7 +20782,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>282</v>
       </c>
@@ -20828,7 +20829,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>283</v>
       </c>
@@ -20875,7 +20876,7 @@
         <v>-184</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>284</v>
       </c>
@@ -20922,7 +20923,7 @@
         <v>7319</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>285</v>
       </c>
@@ -20969,7 +20970,7 @@
         <v>-3454</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>286</v>
       </c>
@@ -21016,7 +21017,7 @@
         <v>-17471</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
         <v>421</v>
       </c>
@@ -21063,7 +21064,7 @@
         <v>5027</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
         <v>422</v>
       </c>
@@ -21110,7 +21111,7 @@
         <v>10778</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
         <v>423</v>
       </c>
@@ -21157,7 +21158,7 @@
         <v>-34513</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
         <v>424</v>
       </c>
@@ -21204,7 +21205,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>287</v>
       </c>
@@ -21251,7 +21252,7 @@
         <v>87194</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
         <v>288</v>
       </c>
@@ -21298,7 +21299,7 @@
         <v>-991</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>289</v>
       </c>
@@ -21345,7 +21346,7 @@
         <v>-4938</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>290</v>
       </c>
@@ -21392,7 +21393,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>291</v>
       </c>
@@ -21439,7 +21440,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>292</v>
       </c>
@@ -21486,7 +21487,7 @@
         <v>6625</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>293</v>
       </c>
@@ -21533,7 +21534,7 @@
         <v>-4874</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>294</v>
       </c>
@@ -21580,7 +21581,7 @@
         <v>19143</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>295</v>
       </c>
@@ -21627,7 +21628,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>296</v>
       </c>
@@ -21674,7 +21675,7 @@
         <v>8717</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>297</v>
       </c>
@@ -21721,7 +21722,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>298</v>
       </c>
@@ -21768,7 +21769,7 @@
         <v>15144</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>299</v>
       </c>
@@ -21815,7 +21816,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>300</v>
       </c>
@@ -21862,7 +21863,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>301</v>
       </c>
@@ -21909,7 +21910,7 @@
         <v>-778</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>302</v>
       </c>
@@ -21956,7 +21957,7 @@
         <v>26540</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>303</v>
       </c>
@@ -22003,7 +22004,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>304</v>
       </c>
@@ -22050,7 +22051,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>305</v>
       </c>
@@ -22097,7 +22098,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>306</v>
       </c>
@@ -22144,7 +22145,7 @@
         <v>6742</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>307</v>
       </c>
@@ -22191,7 +22192,7 @@
         <v>8011</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>308</v>
       </c>
@@ -22238,7 +22239,7 @@
         <v>38057</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
         <v>309</v>
       </c>
@@ -22285,7 +22286,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>310</v>
       </c>
@@ -22332,7 +22333,7 @@
         <v>-293</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>311</v>
       </c>
@@ -22379,7 +22380,7 @@
         <v>-4036</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>312</v>
       </c>
@@ -22426,7 +22427,7 @@
         <v>-2549</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
         <v>313</v>
       </c>
@@ -22473,7 +22474,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
         <v>314</v>
       </c>
@@ -22520,7 +22521,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>315</v>
       </c>
@@ -22567,7 +22568,7 @@
         <v>7711</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
         <v>316</v>
       </c>
@@ -22614,7 +22615,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>317</v>
       </c>
@@ -22661,7 +22662,7 @@
         <v>-449</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>318</v>
       </c>
@@ -22708,7 +22709,7 @@
         <v>10774</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>319</v>
       </c>
@@ -22755,7 +22756,7 @@
         <v>-892</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>320</v>
       </c>
@@ -22802,7 +22803,7 @@
         <v>-8543</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
         <v>321</v>
       </c>
@@ -22849,7 +22850,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>322</v>
       </c>
@@ -22896,7 +22897,7 @@
         <v>-4735</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
         <v>323</v>
       </c>
@@ -22943,7 +22944,7 @@
         <v>13287</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
         <v>324</v>
       </c>
@@ -22990,7 +22991,7 @@
         <v>-5083</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
         <v>325</v>
       </c>
@@ -23037,7 +23038,7 @@
         <v>-840</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>326</v>
       </c>
@@ -23084,7 +23085,7 @@
         <v>32082</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>327</v>
       </c>
@@ -23131,7 +23132,7 @@
         <v>-27160</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>328</v>
       </c>
@@ -23178,7 +23179,7 @@
         <v>-141865</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
         <v>425</v>
       </c>
@@ -23225,7 +23226,7 @@
         <v>-50074</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
         <v>426</v>
       </c>
@@ -23272,7 +23273,7 @@
         <v>-89794</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
         <v>427</v>
       </c>
@@ -23319,7 +23320,7 @@
         <v>-1997</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
         <v>329</v>
       </c>
@@ -23366,7 +23367,7 @@
         <v>-60695</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>330</v>
       </c>
@@ -23413,7 +23414,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>331</v>
       </c>
@@ -23460,7 +23461,7 @@
         <v>-3219</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
         <v>332</v>
       </c>
@@ -23507,7 +23508,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
         <v>333</v>
       </c>
@@ -23554,7 +23555,7 @@
         <v>-4071</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
         <v>334</v>
       </c>
@@ -23601,7 +23602,7 @@
         <v>-2356</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
         <v>335</v>
       </c>
@@ -23648,7 +23649,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
         <v>336</v>
       </c>
@@ -23695,7 +23696,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
         <v>337</v>
       </c>
@@ -23742,7 +23743,7 @@
         <v>-29241</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="11" t="s">
         <v>428</v>
       </c>
@@ -23789,7 +23790,7 @@
         <v>-30348</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
         <v>429</v>
       </c>
@@ -23836,7 +23837,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
         <v>338</v>
       </c>
@@ -23883,7 +23884,7 @@
         <v>5507</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
         <v>339</v>
       </c>
@@ -23930,7 +23931,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
         <v>340</v>
       </c>
@@ -23977,7 +23978,7 @@
         <v>-78</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
         <v>341</v>
       </c>
@@ -24024,7 +24025,7 @@
         <v>4149</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
         <v>342</v>
       </c>
@@ -24071,7 +24072,7 @@
         <v>-4178</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
         <v>343</v>
       </c>
@@ -24118,7 +24119,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>344</v>
       </c>
@@ -24165,7 +24166,7 @@
         <v>-1308</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
         <v>345</v>
       </c>
@@ -24212,7 +24213,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
         <v>346</v>
       </c>
@@ -24259,7 +24260,7 @@
         <v>-1014</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
         <v>347</v>
       </c>
@@ -24306,7 +24307,7 @@
         <v>7898</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
         <v>348</v>
       </c>
@@ -24353,7 +24354,7 @@
         <v>8059</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
         <v>349</v>
       </c>
@@ -24400,7 +24401,7 @@
         <v>-1269</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
         <v>350</v>
       </c>
@@ -24447,7 +24448,7 @@
         <v>-2222</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
         <v>351</v>
       </c>
@@ -24494,7 +24495,7 @@
         <v>5932</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
         <v>352</v>
       </c>
@@ -24541,7 +24542,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
         <v>353</v>
       </c>
@@ -24588,7 +24589,7 @@
         <v>-642</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
         <v>354</v>
       </c>
@@ -24635,7 +24636,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
         <v>355</v>
       </c>
@@ -24682,7 +24683,7 @@
         <v>6652</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
         <v>356</v>
       </c>
@@ -24729,7 +24730,7 @@
         <v>-712</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
         <v>357</v>
       </c>
@@ -24776,7 +24777,7 @@
         <v>-3478</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
         <v>358</v>
       </c>
@@ -24823,7 +24824,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
         <v>359</v>
       </c>
@@ -24870,7 +24871,7 @@
         <v>52367</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
         <v>360</v>
       </c>
@@ -24917,7 +24918,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
         <v>361</v>
       </c>
@@ -24964,7 +24965,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
         <v>362</v>
       </c>
@@ -25011,7 +25012,7 @@
         <v>8857</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
         <v>363</v>
       </c>
@@ -25058,7 +25059,7 @@
         <v>-1427</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
         <v>364</v>
       </c>
@@ -25105,7 +25106,7 @@
         <v>-131</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
         <v>365</v>
       </c>
@@ -25152,7 +25153,7 @@
         <v>-2592</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
         <v>366</v>
       </c>
@@ -25199,7 +25200,7 @@
         <v>10757</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
         <v>367</v>
       </c>
@@ -25246,7 +25247,7 @@
         <v>7873</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
         <v>368</v>
       </c>
@@ -25293,7 +25294,7 @@
         <v>-713</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
         <v>369</v>
       </c>
@@ -25340,7 +25341,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
         <v>370</v>
       </c>
@@ -25387,7 +25388,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
         <v>371</v>
       </c>
@@ -25434,7 +25435,7 @@
         <v>-17941</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
         <v>372</v>
       </c>
@@ -25481,7 +25482,7 @@
         <v>-1223</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>373</v>
       </c>
@@ -25528,7 +25529,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
         <v>374</v>
       </c>
@@ -25575,7 +25576,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
         <v>375</v>
       </c>
@@ -25622,7 +25623,7 @@
         <v>-413</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
         <v>376</v>
       </c>
@@ -25669,7 +25670,7 @@
         <v>-665</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
         <v>377</v>
       </c>
@@ -25716,7 +25717,7 @@
         <v>-648</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
         <v>378</v>
       </c>
@@ -25763,7 +25764,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
         <v>379</v>
       </c>
@@ -25810,7 +25811,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
         <v>380</v>
       </c>
@@ -25857,7 +25858,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>381</v>
       </c>
@@ -25904,7 +25905,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
         <v>382</v>
       </c>
@@ -25951,7 +25952,7 @@
         <v>-74868</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="11" t="s">
         <v>430</v>
       </c>
@@ -25998,7 +25999,7 @@
         <v>-7409</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="11" t="s">
         <v>431</v>
       </c>
@@ -26045,7 +26046,7 @@
         <v>-67459</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
         <v>383</v>
       </c>
@@ -26092,7 +26093,7 @@
         <v>-882</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
         <v>384</v>
       </c>
@@ -26139,7 +26140,7 @@
         <v>-1127</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
         <v>385</v>
       </c>
@@ -26186,7 +26187,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
         <v>386</v>
       </c>
@@ -26233,7 +26234,7 @@
         <v>-251</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
         <v>387</v>
       </c>
@@ -26280,7 +26281,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
         <v>388</v>
       </c>
@@ -26327,7 +26328,7 @@
         <v>-554</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
         <v>389</v>
       </c>
@@ -26374,7 +26375,7 @@
         <v>-935</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
         <v>390</v>
       </c>
@@ -26421,7 +26422,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
         <v>391</v>
       </c>
@@ -26468,7 +26469,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
         <v>392</v>
       </c>
@@ -26515,7 +26516,7 @@
         <v>6767</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
         <v>393</v>
       </c>
@@ -26562,7 +26563,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
         <v>394</v>
       </c>
@@ -26609,7 +26610,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
         <v>395</v>
       </c>
@@ -26656,7 +26657,7 @@
         <v>-638</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
         <v>396</v>
       </c>
@@ -26703,7 +26704,7 @@
         <v>-1985</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
         <v>397</v>
       </c>
@@ -26750,7 +26751,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
         <v>398</v>
       </c>
@@ -26797,7 +26798,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
         <v>399</v>
       </c>
@@ -26844,7 +26845,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="12" t="s">
         <v>400</v>
       </c>
@@ -26891,165 +26892,161 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="25" t="s">
+    <row r="423" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="B423" s="15"/>
-      <c r="C423" s="15"/>
-      <c r="D423" s="15"/>
-      <c r="E423" s="15"/>
-      <c r="F423" s="15"/>
-      <c r="G423" s="15"/>
-      <c r="H423" s="15"/>
-      <c r="I423" s="15"/>
-      <c r="J423" s="15"/>
-      <c r="K423" s="15"/>
-      <c r="L423" s="15"/>
-      <c r="M423" s="15"/>
-      <c r="N423" s="15"/>
-      <c r="O423" s="15"/>
-    </row>
-    <row r="424" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="14" t="s">
+      <c r="B423" s="27"/>
+      <c r="C423" s="27"/>
+      <c r="D423" s="27"/>
+      <c r="E423" s="27"/>
+      <c r="F423" s="27"/>
+      <c r="G423" s="27"/>
+      <c r="H423" s="27"/>
+      <c r="I423" s="27"/>
+      <c r="J423" s="27"/>
+      <c r="K423" s="27"/>
+      <c r="L423" s="27"/>
+      <c r="M423" s="27"/>
+      <c r="N423" s="27"/>
+      <c r="O423" s="27"/>
+    </row>
+    <row r="424" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="B424" s="15"/>
-      <c r="C424" s="15"/>
-      <c r="D424" s="15"/>
-      <c r="E424" s="15"/>
-      <c r="F424" s="15"/>
-      <c r="G424" s="15"/>
-      <c r="H424" s="15"/>
-      <c r="I424" s="15"/>
-      <c r="J424" s="15"/>
-      <c r="K424" s="15"/>
-      <c r="L424" s="15"/>
-      <c r="M424" s="15"/>
-      <c r="N424" s="15"/>
-      <c r="O424" s="15"/>
-    </row>
-    <row r="425" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="14" t="s">
+      <c r="B424" s="27"/>
+      <c r="C424" s="27"/>
+      <c r="D424" s="27"/>
+      <c r="E424" s="27"/>
+      <c r="F424" s="27"/>
+      <c r="G424" s="27"/>
+      <c r="H424" s="27"/>
+      <c r="I424" s="27"/>
+      <c r="J424" s="27"/>
+      <c r="K424" s="27"/>
+      <c r="L424" s="27"/>
+      <c r="M424" s="27"/>
+      <c r="N424" s="27"/>
+      <c r="O424" s="27"/>
+    </row>
+    <row r="425" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="B425" s="15"/>
-      <c r="C425" s="15"/>
-      <c r="D425" s="15"/>
-      <c r="E425" s="15"/>
-      <c r="F425" s="15"/>
-      <c r="G425" s="15"/>
-      <c r="H425" s="15"/>
-      <c r="I425" s="15"/>
-      <c r="J425" s="15"/>
-      <c r="K425" s="15"/>
-      <c r="L425" s="15"/>
-      <c r="M425" s="15"/>
-      <c r="N425" s="15"/>
-      <c r="O425" s="15"/>
-    </row>
-    <row r="426" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="26" t="s">
+      <c r="B425" s="27"/>
+      <c r="C425" s="27"/>
+      <c r="D425" s="27"/>
+      <c r="E425" s="27"/>
+      <c r="F425" s="27"/>
+      <c r="G425" s="27"/>
+      <c r="H425" s="27"/>
+      <c r="I425" s="27"/>
+      <c r="J425" s="27"/>
+      <c r="K425" s="27"/>
+      <c r="L425" s="27"/>
+      <c r="M425" s="27"/>
+      <c r="N425" s="27"/>
+      <c r="O425" s="27"/>
+    </row>
+    <row r="426" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="B426" s="27"/>
-      <c r="C426" s="27"/>
-      <c r="D426" s="27"/>
-      <c r="E426" s="27"/>
-      <c r="F426" s="27"/>
-      <c r="G426" s="27"/>
-      <c r="H426" s="27"/>
-      <c r="I426" s="27"/>
-      <c r="J426" s="27"/>
-      <c r="K426" s="27"/>
-      <c r="L426" s="27"/>
-      <c r="M426" s="27"/>
-      <c r="N426" s="27"/>
-      <c r="O426" s="28"/>
-    </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A427" s="29" t="s">
+      <c r="B426" s="15"/>
+      <c r="C426" s="15"/>
+      <c r="D426" s="15"/>
+      <c r="E426" s="15"/>
+      <c r="F426" s="15"/>
+      <c r="G426" s="15"/>
+      <c r="H426" s="15"/>
+      <c r="I426" s="15"/>
+      <c r="J426" s="15"/>
+      <c r="K426" s="15"/>
+      <c r="L426" s="15"/>
+      <c r="M426" s="15"/>
+      <c r="N426" s="15"/>
+      <c r="O426" s="16"/>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A427" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="B427" s="30"/>
-      <c r="C427" s="30"/>
-      <c r="D427" s="30"/>
-      <c r="E427" s="30"/>
-      <c r="F427" s="30"/>
-      <c r="G427" s="30"/>
-      <c r="H427" s="30"/>
-      <c r="I427" s="30"/>
-      <c r="J427" s="30"/>
-      <c r="K427" s="30"/>
-      <c r="L427" s="30"/>
-      <c r="M427" s="30"/>
-      <c r="N427" s="30"/>
-      <c r="O427" s="31"/>
-    </row>
-    <row r="428" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="32" t="s">
+      <c r="B427" s="18"/>
+      <c r="C427" s="18"/>
+      <c r="D427" s="18"/>
+      <c r="E427" s="18"/>
+      <c r="F427" s="18"/>
+      <c r="G427" s="18"/>
+      <c r="H427" s="18"/>
+      <c r="I427" s="18"/>
+      <c r="J427" s="18"/>
+      <c r="K427" s="18"/>
+      <c r="L427" s="18"/>
+      <c r="M427" s="18"/>
+      <c r="N427" s="18"/>
+      <c r="O427" s="19"/>
+    </row>
+    <row r="428" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="B428" s="33"/>
-      <c r="C428" s="33"/>
-      <c r="D428" s="33"/>
-      <c r="E428" s="33"/>
-      <c r="F428" s="33"/>
-      <c r="G428" s="33"/>
-      <c r="H428" s="33"/>
-      <c r="I428" s="33"/>
-      <c r="J428" s="33"/>
-      <c r="K428" s="33"/>
-      <c r="L428" s="33"/>
-      <c r="M428" s="33"/>
-      <c r="N428" s="33"/>
-      <c r="O428" s="34"/>
-    </row>
-    <row r="429" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="32" t="s">
+      <c r="B428" s="21"/>
+      <c r="C428" s="21"/>
+      <c r="D428" s="21"/>
+      <c r="E428" s="21"/>
+      <c r="F428" s="21"/>
+      <c r="G428" s="21"/>
+      <c r="H428" s="21"/>
+      <c r="I428" s="21"/>
+      <c r="J428" s="21"/>
+      <c r="K428" s="21"/>
+      <c r="L428" s="21"/>
+      <c r="M428" s="21"/>
+      <c r="N428" s="21"/>
+      <c r="O428" s="22"/>
+    </row>
+    <row r="429" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B429" s="33"/>
-      <c r="C429" s="33"/>
-      <c r="D429" s="33"/>
-      <c r="E429" s="33"/>
-      <c r="F429" s="33"/>
-      <c r="G429" s="33"/>
-      <c r="H429" s="33"/>
-      <c r="I429" s="33"/>
-      <c r="J429" s="33"/>
-      <c r="K429" s="33"/>
-      <c r="L429" s="33"/>
-      <c r="M429" s="33"/>
-      <c r="N429" s="33"/>
-      <c r="O429" s="34"/>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A430" s="35" t="s">
+      <c r="B429" s="21"/>
+      <c r="C429" s="21"/>
+      <c r="D429" s="21"/>
+      <c r="E429" s="21"/>
+      <c r="F429" s="21"/>
+      <c r="G429" s="21"/>
+      <c r="H429" s="21"/>
+      <c r="I429" s="21"/>
+      <c r="J429" s="21"/>
+      <c r="K429" s="21"/>
+      <c r="L429" s="21"/>
+      <c r="M429" s="21"/>
+      <c r="N429" s="21"/>
+      <c r="O429" s="22"/>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A430" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="B430" s="36"/>
-      <c r="C430" s="36"/>
-      <c r="D430" s="36"/>
-      <c r="E430" s="36"/>
-      <c r="F430" s="36"/>
-      <c r="G430" s="36"/>
-      <c r="H430" s="36"/>
-      <c r="I430" s="36"/>
-      <c r="J430" s="36"/>
-      <c r="K430" s="36"/>
-      <c r="L430" s="36"/>
-      <c r="M430" s="36"/>
-      <c r="N430" s="36"/>
-      <c r="O430" s="37"/>
+      <c r="B430" s="24"/>
+      <c r="C430" s="24"/>
+      <c r="D430" s="24"/>
+      <c r="E430" s="24"/>
+      <c r="F430" s="24"/>
+      <c r="G430" s="24"/>
+      <c r="H430" s="24"/>
+      <c r="I430" s="24"/>
+      <c r="J430" s="24"/>
+      <c r="K430" s="24"/>
+      <c r="L430" s="24"/>
+      <c r="M430" s="24"/>
+      <c r="N430" s="24"/>
+      <c r="O430" s="25"/>
     </row>
   </sheetData>
+  <autoFilter ref="A5:O430" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="A426:O426"/>
-    <mergeCell ref="A427:O427"/>
-    <mergeCell ref="A428:O428"/>
-    <mergeCell ref="A429:O429"/>
-    <mergeCell ref="A430:O430"/>
     <mergeCell ref="A425:O425"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
@@ -27066,6 +27063,11 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="A423:O423"/>
     <mergeCell ref="A424:O424"/>
+    <mergeCell ref="A426:O426"/>
+    <mergeCell ref="A427:O427"/>
+    <mergeCell ref="A428:O428"/>
+    <mergeCell ref="A429:O429"/>
+    <mergeCell ref="A430:O430"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.85" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -27080,13 +27082,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C7EFBE-9383-CD49-80B9-50EFCDD2C6EF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>440</v>
       </c>
